--- a/Civilworks cost/Spec for EMB PROT Works/WBS.xlsx
+++ b/Civilworks cost/Spec for EMB PROT Works/WBS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FLOOD FUSE 30m" sheetId="1" r:id="rId1"/>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1243,7 +1243,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1470,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
